--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-309_システム環境要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-309_システム環境要件定義(サンプル＆ガイド).xlsx
@@ -381,16 +381,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="2"/>
   </si>
@@ -535,6 +525,9 @@
   <si>
     <t>[IPA/SEC『非機能要求グレード：システム基盤の非機能要求に関する項目一覧』[5]より引用、一部改訂]</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -1119,6 +1112,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1177,18 +1182,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2752,9 +2745,7 @@
       <c r="G31" s="66"/>
       <c r="H31" s="2"/>
       <c r="J31" s="67"/>
-      <c r="R31" s="68" t="s">
-        <v>39</v>
-      </c>
+      <c r="R31" s="68"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1">
       <c r="F32" s="2"/>
@@ -2794,20 +2785,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1">
       <c r="B39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="75" t="s">
         <v>40</v>
-      </c>
-      <c r="E39" s="75" t="s">
-        <v>41</v>
       </c>
       <c r="O39" s="72"/>
       <c r="P39" s="72"/>
       <c r="Q39" s="73"/>
       <c r="R39" s="73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S39" s="72"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1">
+      <c r="B40" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1"/>
@@ -3282,7 +3277,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -3333,282 +3328,282 @@
       <c r="B12" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="92" t="s">
+      <c r="C12" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="91"/>
-      <c r="AB12" s="93" t="s">
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="97"/>
     </row>
     <row r="13" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B13" s="77">
+      <c r="B13" s="81">
         <v>1</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="94" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="100"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="100"/>
+    </row>
+    <row r="14" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="B14" s="82"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="96"/>
-    </row>
-    <row r="14" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B14" s="78"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="97" t="s">
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+    </row>
+    <row r="15" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="B15" s="82"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="100"/>
-      <c r="AE14" s="100"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="100"/>
-    </row>
-    <row r="15" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B15" s="78"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="97" t="s">
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="80"/>
+      <c r="AD15" s="80"/>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="80"/>
+      <c r="AG15" s="80"/>
+      <c r="AH15" s="80"/>
+    </row>
+    <row r="16" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="B16" s="82"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="100"/>
-      <c r="AE15" s="100"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="100"/>
-    </row>
-    <row r="16" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B16" s="78"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="97" t="s">
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+    </row>
+    <row r="17" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="B17" s="82"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="100"/>
-      <c r="AE16" s="100"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="100"/>
-      <c r="AH16" s="100"/>
-    </row>
-    <row r="17" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B17" s="78"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="97" t="s">
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="80"/>
+      <c r="AG17" s="80"/>
+      <c r="AH17" s="80"/>
+    </row>
+    <row r="18" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="B18" s="83"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="100"/>
-      <c r="AF17" s="100"/>
-      <c r="AG17" s="100"/>
-      <c r="AH17" s="100"/>
-    </row>
-    <row r="18" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B18" s="79"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="97" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="97" t="s">
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="100"/>
-      <c r="AC18" s="100"/>
-      <c r="AD18" s="100"/>
-      <c r="AE18" s="100"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="100"/>
-      <c r="AH18" s="100"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="80"/>
+      <c r="AH18" s="80"/>
     </row>
     <row r="19" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="13"/>
@@ -3618,7 +3613,7 @@
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -3776,13 +3771,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="M18:AA18"/>
-    <mergeCell ref="AB18:AH18"/>
-    <mergeCell ref="M16:AA16"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:AA17"/>
-    <mergeCell ref="AB17:AH17"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:F18"/>
     <mergeCell ref="C12:L12"/>
@@ -3799,6 +3787,13 @@
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="AB14:AH14"/>
     <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:AA18"/>
+    <mergeCell ref="AB18:AH18"/>
+    <mergeCell ref="M16:AA16"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="AB17:AH17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-309_システム環境要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-309_システム環境要件定義(サンプル＆ガイド).xlsx
@@ -381,6 +381,16 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="2"/>
   </si>
@@ -525,9 +535,6 @@
   <si>
     <t>[IPA/SEC『非機能要求グレード：システム基盤の非機能要求に関する項目一覧』[5]より引用、一部改訂]</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -1112,6 +1119,66 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1122,66 +1189,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2745,7 +2752,9 @@
       <c r="G31" s="66"/>
       <c r="H31" s="2"/>
       <c r="J31" s="67"/>
-      <c r="R31" s="68"/>
+      <c r="R31" s="68" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1">
       <c r="F32" s="2"/>
@@ -2785,24 +2794,20 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1">
       <c r="B39" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" s="75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O39" s="72"/>
       <c r="P39" s="72"/>
       <c r="Q39" s="73"/>
       <c r="R39" s="73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S39" s="72"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B40" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1"/>
@@ -3277,7 +3282,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -3328,282 +3333,282 @@
       <c r="B12" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+    </row>
+    <row r="13" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1" thickTop="1">
+      <c r="B13" s="77">
+        <v>1</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="96"/>
+    </row>
+    <row r="14" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="B14" s="78"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="100"/>
+    </row>
+    <row r="15" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="B15" s="78"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="100"/>
+      <c r="AC15" s="100"/>
+      <c r="AD15" s="100"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="100"/>
+    </row>
+    <row r="16" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="B16" s="78"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="100"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="100"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="100"/>
+    </row>
+    <row r="17" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="B17" s="78"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="100"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="100"/>
+    </row>
+    <row r="18" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="B18" s="79"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-    </row>
-    <row r="13" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B13" s="81">
-        <v>1</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="100"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="100"/>
-    </row>
-    <row r="14" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B14" s="82"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="80"/>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="80"/>
-      <c r="AH14" s="80"/>
-    </row>
-    <row r="15" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B15" s="82"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="80"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="80"/>
-      <c r="AH15" s="80"/>
-    </row>
-    <row r="16" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B16" s="82"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="80"/>
-    </row>
-    <row r="17" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B17" s="82"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="80"/>
-      <c r="AE17" s="80"/>
-      <c r="AF17" s="80"/>
-      <c r="AG17" s="80"/>
-      <c r="AH17" s="80"/>
-    </row>
-    <row r="18" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B18" s="83"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="77" t="s">
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="80"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="80"/>
-      <c r="AH18" s="80"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="100"/>
     </row>
     <row r="19" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="13"/>
@@ -3613,7 +3618,7 @@
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -3771,6 +3776,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="M18:AA18"/>
+    <mergeCell ref="AB18:AH18"/>
+    <mergeCell ref="M16:AA16"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="AB17:AH17"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:F18"/>
     <mergeCell ref="C12:L12"/>
@@ -3787,13 +3799,6 @@
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="AB14:AH14"/>
     <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:AA18"/>
-    <mergeCell ref="AB18:AH18"/>
-    <mergeCell ref="M16:AA16"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:AA17"/>
-    <mergeCell ref="AB17:AH17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-309_システム環境要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-309_システム環境要件定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A4C35B-FF91-453E-A521-788151BDEADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11970"/>
+    <workbookView xWindow="9660" yWindow="6030" windowWidth="18150" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>５．表記例</t>
     <rPh sb="2" eb="4">
@@ -379,17 +380,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <r>
@@ -526,15 +516,12 @@
     <t>[IPA/SEC『非機能要求グレード：システム基盤の非機能要求に関する項目一覧』[5]より引用、一部改訂]</t>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1112,6 +1099,66 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1122,66 +1169,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1219,7 +1206,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1317,52 +1310,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1383,7 +1330,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1442,7 +1395,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1505,7 +1464,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1564,7 +1529,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1627,7 +1598,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -1680,7 +1657,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="カギ線コネクタ 6"/>
+        <xdr:cNvPr id="7" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -1733,7 +1716,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="カギ線コネクタ 7"/>
+        <xdr:cNvPr id="8" name="カギ線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -1786,7 +1775,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1849,7 +1844,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1912,7 +1913,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26"/>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -1964,7 +1971,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="カギ線コネクタ 29"/>
+        <xdr:cNvPr id="30" name="カギ線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="17" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -2022,7 +2035,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 1"/>
+        <xdr:cNvPr id="5" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2133,7 +2152,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Text Box 1"/>
+        <xdr:cNvPr id="6" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2244,7 +2269,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Text Box 1"/>
+        <xdr:cNvPr id="7" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2364,7 +2395,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2406,7 +2437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2439,9 +2470,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2474,6 +2522,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2649,7 +2714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2657,42 +2722,42 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:19" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="6:19" ht="17.25" customHeight="1">
+    <row r="23" spans="6:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2701,12 +2766,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="6:19" ht="13.5" customHeight="1">
+    <row r="24" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="6:19" ht="18" customHeight="1">
+    <row r="25" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2715,39 +2780,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="6:19" ht="13.5" customHeight="1">
+    <row r="26" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="6:19" ht="13.5" customHeight="1">
+    <row r="27" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="6:19" ht="13.5" customHeight="1">
+    <row r="28" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="65"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="6:19" ht="13.5" customHeight="1">
+    <row r="29" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="2"/>
       <c r="G29" s="66"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="6:19" ht="13.5" customHeight="1">
+    <row r="30" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="2"/>
       <c r="G30" s="66"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="6:19" ht="21" customHeight="1">
+    <row r="31" spans="6:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="2"/>
       <c r="G31" s="66"/>
       <c r="H31" s="2"/>
       <c r="J31" s="67"/>
       <c r="R31" s="68"/>
     </row>
-    <row r="32" spans="6:19" ht="13.5" customHeight="1">
+    <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="2"/>
       <c r="H32" s="2"/>
       <c r="L32" s="69"/>
@@ -2759,853 +2824,839 @@
       <c r="R32" s="71"/>
       <c r="S32" s="72"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="69"/>
       <c r="P36" s="69"/>
       <c r="Q36" s="72"/>
       <c r="R36" s="72"/>
       <c r="S36" s="72"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="73"/>
       <c r="P37" s="72"/>
       <c r="Q37" s="73"/>
       <c r="R37" s="72"/>
       <c r="S37" s="74"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="73"/>
       <c r="P38" s="72"/>
       <c r="Q38" s="73"/>
       <c r="R38" s="72"/>
       <c r="S38" s="73"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="75" t="s">
-        <v>40</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="75"/>
       <c r="O39" s="72"/>
       <c r="P39" s="72"/>
       <c r="Q39" s="73"/>
-      <c r="R39" s="73" t="s">
-        <v>41</v>
-      </c>
+      <c r="R39" s="73"/>
       <c r="S39" s="72"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B40" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BC29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="5" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1"/>
-    <row r="4" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1"/>
-    <row r="5" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1"/>
-    <row r="8" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1"/>
-    <row r="9" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1"/>
-    <row r="10" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1"/>
-    <row r="12" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="11" spans="1:34" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="93" t="s">
-        <v>48</v>
+      <c r="C12" s="89" t="s">
+        <v>45</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="96" t="s">
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="97" t="s">
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-    </row>
-    <row r="13" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B13" s="81">
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+    </row>
+    <row r="13" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="77">
         <v>1</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="98" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="96"/>
+    </row>
+    <row r="14" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="78"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="100"/>
+    </row>
+    <row r="15" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="78"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="100"/>
+      <c r="AC15" s="100"/>
+      <c r="AD15" s="100"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="100"/>
+    </row>
+    <row r="16" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="78"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="98" t="s">
-        <v>33</v>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="97" t="s">
+        <v>18</v>
       </c>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="100"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="100"/>
-    </row>
-    <row r="14" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B14" s="82"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="77" t="s">
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="100"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="100"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="100"/>
+    </row>
+    <row r="17" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="78"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="77" t="s">
-        <v>34</v>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="97" t="s">
+        <v>19</v>
       </c>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="80"/>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="80"/>
-      <c r="AH14" s="80"/>
-    </row>
-    <row r="15" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B15" s="82"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="77" t="s">
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="100"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="100"/>
+    </row>
+    <row r="18" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="79"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="80"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="80"/>
-      <c r="AH15" s="80"/>
-    </row>
-    <row r="16" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B16" s="82"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="80"/>
-    </row>
-    <row r="17" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B17" s="82"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="80"/>
-      <c r="AE17" s="80"/>
-      <c r="AF17" s="80"/>
-      <c r="AG17" s="80"/>
-      <c r="AH17" s="80"/>
-    </row>
-    <row r="18" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="B18" s="83"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="77" t="s">
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="80"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="80"/>
-      <c r="AH18" s="80"/>
-    </row>
-    <row r="19" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="100"/>
+    </row>
+    <row r="19" spans="1:55" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
@@ -3613,7 +3664,7 @@
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -3643,19 +3694,19 @@
       <c r="AG19" s="76"/>
       <c r="AH19" s="76"/>
     </row>
-    <row r="20" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1"/>
-    <row r="21" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1">
+    <row r="20" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1"/>
-    <row r="23" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1"/>
-    <row r="24" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1"/>
-    <row r="25" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1"/>
-    <row r="26" spans="1:55" s="6" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1"/>
-    <row r="28" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:55" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -3712,7 +3763,7 @@
       <c r="BB28" s="17"/>
       <c r="BC28" s="17"/>
     </row>
-    <row r="29" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1">
+    <row r="29" spans="1:55" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -3771,6 +3822,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="M18:AA18"/>
+    <mergeCell ref="AB18:AH18"/>
+    <mergeCell ref="M16:AA16"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="AB17:AH17"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:F18"/>
     <mergeCell ref="C12:L12"/>
@@ -3787,13 +3845,6 @@
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="AB14:AH14"/>
     <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:AA18"/>
-    <mergeCell ref="AB18:AH18"/>
-    <mergeCell ref="M16:AA16"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:AA17"/>
-    <mergeCell ref="AB17:AH17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3806,12 +3857,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="17"/>
     <col min="2" max="2" width="8" style="17" bestFit="1" customWidth="1"/>
@@ -3822,13 +3873,13 @@
     <col min="38" max="16384" width="5" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="6" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:39" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="6" customFormat="1" ht="12" customHeight="1"/>
-    <row r="3" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="2" spans="1:39" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="60" t="s">
         <v>22</v>
@@ -3859,7 +3910,7 @@
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
     </row>
-    <row r="4" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="4" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
@@ -3900,7 +3951,7 @@
       <c r="AK4" s="8"/>
       <c r="AL4" s="8"/>
     </row>
-    <row r="5" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="5" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -3949,7 +4000,7 @@
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
     </row>
-    <row r="6" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="6" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -3994,7 +4045,7 @@
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
     </row>
-    <row r="7" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="7" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -4022,7 +4073,7 @@
       <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
     </row>
-    <row r="8" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="8" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="60" t="s">
         <v>24</v>
@@ -4066,7 +4117,7 @@
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
     </row>
-    <row r="9" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="9" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="60"/>
       <c r="C9" s="8" t="s">
@@ -4108,7 +4159,7 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="10" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
@@ -4150,7 +4201,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="13"/>
     </row>
-    <row r="11" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -4185,7 +4236,7 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
     </row>
-    <row r="12" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="12" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="62" t="s">
         <v>25</v>
@@ -4224,7 +4275,7 @@
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
     </row>
-    <row r="13" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="13" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="46"/>
       <c r="C13" s="8" t="s">
@@ -4261,7 +4312,7 @@
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
     </row>
-    <row r="14" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="14" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="46"/>
       <c r="C14" s="43"/>
@@ -4306,7 +4357,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
     </row>
-    <row r="15" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="15" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="42"/>
       <c r="C15" s="48"/>
@@ -4344,7 +4395,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="16" spans="1:39" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="47"/>
       <c r="C16" s="44"/>
@@ -4384,7 +4435,7 @@
       <c r="AK16" s="8"/>
       <c r="AL16" s="8"/>
     </row>
-    <row r="17" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="17" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="46"/>
       <c r="C17" s="43"/>
@@ -4424,7 +4475,7 @@
       <c r="AK17" s="8"/>
       <c r="AL17" s="8"/>
     </row>
-    <row r="18" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="18" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="46"/>
       <c r="C18" s="50"/>
@@ -4464,7 +4515,7 @@
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
     </row>
-    <row r="19" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="19" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="C19" s="50"/>
       <c r="D19" s="49"/>
@@ -4503,7 +4554,7 @@
       <c r="AK19" s="8"/>
       <c r="AL19" s="8"/>
     </row>
-    <row r="20" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="20" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="46"/>
       <c r="C20" s="43"/>
@@ -4543,7 +4594,7 @@
       <c r="AK20" s="8"/>
       <c r="AL20" s="8"/>
     </row>
-    <row r="21" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="21" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="46"/>
       <c r="C21" s="50"/>
@@ -4583,7 +4634,7 @@
       <c r="AK21" s="8"/>
       <c r="AL21" s="8"/>
     </row>
-    <row r="22" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="22" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
@@ -4623,7 +4674,7 @@
       <c r="AK22" s="8"/>
       <c r="AL22" s="8"/>
     </row>
-    <row r="23" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="23" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="10"/>
@@ -4663,7 +4714,7 @@
       <c r="AK23" s="8"/>
       <c r="AL23" s="8"/>
     </row>
-    <row r="24" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="24" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -4702,7 +4753,7 @@
       <c r="AK24" s="8"/>
       <c r="AL24" s="8"/>
     </row>
-    <row r="25" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="25" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
@@ -4741,7 +4792,7 @@
       <c r="AK25" s="8"/>
       <c r="AL25" s="8"/>
     </row>
-    <row r="26" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="26" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="10"/>
@@ -4781,7 +4832,7 @@
       <c r="AK26" s="8"/>
       <c r="AL26" s="8"/>
     </row>
-    <row r="27" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="27" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -4821,7 +4872,7 @@
       <c r="AK27" s="8"/>
       <c r="AL27" s="8"/>
     </row>
-    <row r="28" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="28" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="10"/>
@@ -4861,7 +4912,7 @@
       <c r="AK28" s="8"/>
       <c r="AL28" s="8"/>
     </row>
-    <row r="29" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="29" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="19"/>
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
@@ -4899,7 +4950,7 @@
       <c r="AK29" s="22"/>
       <c r="AL29" s="22"/>
     </row>
-    <row r="30" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="30" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="24"/>
@@ -4937,7 +4988,7 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="24"/>
     </row>
-    <row r="31" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="31" spans="1:38" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="23"/>
@@ -4977,7 +5028,7 @@
       <c r="AK31" s="26"/>
       <c r="AL31" s="26"/>
     </row>
-    <row r="32" spans="1:38" s="6" customFormat="1" ht="13.5" customHeight="1">
+    <row r="32" spans="1:38" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="27"/>
@@ -5017,7 +5068,7 @@
       <c r="AK32" s="24"/>
       <c r="AL32" s="24"/>
     </row>
-    <row r="33" spans="1:39" s="6" customFormat="1" ht="12" customHeight="1">
+    <row r="33" spans="1:39" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="27"/>
@@ -5058,7 +5109,7 @@
       <c r="AL33" s="17"/>
       <c r="AM33" s="17"/>
     </row>
-    <row r="34" spans="1:39" s="6" customFormat="1" ht="12" customHeight="1">
+    <row r="34" spans="1:39" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="28"/>
@@ -5099,7 +5150,7 @@
       <c r="AL34" s="17"/>
       <c r="AM34" s="17"/>
     </row>
-    <row r="35" spans="1:39" s="6" customFormat="1" ht="12" customHeight="1">
+    <row r="35" spans="1:39" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="28"/>
@@ -5140,7 +5191,7 @@
       <c r="AL35" s="17"/>
       <c r="AM35" s="17"/>
     </row>
-    <row r="36" spans="1:39" ht="12" customHeight="1">
+    <row r="36" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
@@ -5157,7 +5208,7 @@
       <c r="P36" s="27"/>
       <c r="Q36" s="27"/>
     </row>
-    <row r="37" spans="1:39" ht="12" customHeight="1">
+    <row r="37" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
